--- a/Restaurant_OOP/Data/Database.xlsx
+++ b/Restaurant_OOP/Data/Database.xlsx
@@ -5,18 +5,23 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ASP.NET\Projects\Restaurant_OOP\Restaurant_OOP\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ASP.NET\Projects\Restaurant_OOP\Restaurant_OOP\bin\Debug\net8.0\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFE28FB-BE50-438A-92B0-62A3B8B44D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06D650E-4F58-4CA8-8CE1-DE4B056FF4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BCAD7000-FE64-4F4C-B93D-F2D867AE2971}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{BCAD7000-FE64-4F4C-B93D-F2D867AE2971}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="My Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Personnel" sheetId="2" r:id="rId1"/>
+    <sheet name="Customer" sheetId="1" r:id="rId2"/>
+    <sheet name="Menu" sheetId="3" r:id="rId3"/>
+    <sheet name="FoodQty" sheetId="5" r:id="rId4"/>
+    <sheet name="Order" sheetId="4" r:id="rId5"/>
+    <sheet name="Balance" sheetId="6" r:id="rId6"/>
+    <sheet name="Order Item" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,16 +42,203 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Hello World!</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Id Number</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Mashhadi</t>
+  </si>
+  <si>
+    <t>0088645328</t>
+  </si>
+  <si>
+    <t>Tehran, Madaen</t>
+  </si>
+  <si>
+    <t>ali_m</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Hossein</t>
+  </si>
+  <si>
+    <t>Moradi</t>
+  </si>
+  <si>
+    <t>8872649809</t>
+  </si>
+  <si>
+    <t>Tehran, Resalat</t>
+  </si>
+  <si>
+    <t>hossein_m</t>
+  </si>
+  <si>
+    <t>Navid</t>
+  </si>
+  <si>
+    <t>Mansori</t>
+  </si>
+  <si>
+    <t>2247652908</t>
+  </si>
+  <si>
+    <t>Tehran, Velenjak</t>
+  </si>
+  <si>
+    <t>navid_m</t>
+  </si>
+  <si>
+    <t>Ehsan</t>
+  </si>
+  <si>
+    <t>Arefazdeh</t>
+  </si>
+  <si>
+    <t>0094264784</t>
+  </si>
+  <si>
+    <t>Tehran, Sabalan St.</t>
+  </si>
+  <si>
+    <t>ehsan</t>
+  </si>
+  <si>
+    <t>Mehran</t>
+  </si>
+  <si>
+    <t>Ghasemi</t>
+  </si>
+  <si>
+    <t>003446784</t>
+  </si>
+  <si>
+    <t>Tehran, Narmak St.</t>
+  </si>
+  <si>
+    <t>mehran</t>
+  </si>
+  <si>
+    <t>Salar</t>
+  </si>
+  <si>
+    <t>Azimi</t>
+  </si>
+  <si>
+    <t>0023454784</t>
+  </si>
+  <si>
+    <t>Tehran, Heravi St.</t>
+  </si>
+  <si>
+    <t>salar</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Chiken Sokhari</t>
+  </si>
+  <si>
+    <t>Chiken</t>
+  </si>
+  <si>
+    <t>Chiken Pizza</t>
+  </si>
+  <si>
+    <t>Chiken Sandwich</t>
+  </si>
+  <si>
+    <t>Food id</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>10/3/2025 11:24:15 AM</t>
+  </si>
+  <si>
+    <t>Customer Id</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>10/3/2025 11:24:16 AM</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>10/3/2025 4:11:48 PM</t>
+  </si>
+  <si>
+    <t>10/3/2025 4:46:57 PM</t>
+  </si>
+  <si>
+    <t>10/3/2025 9:22:45 PM</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>10/3/2025 5:31:39 PM</t>
+  </si>
+  <si>
+    <t>10/3/2025 5:47:46 PM</t>
+  </si>
+  <si>
+    <t>10/3/2025 5:47:58 PM</t>
+  </si>
+  <si>
+    <t>Order Id</t>
+  </si>
+  <si>
+    <t>Food Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,31 +602,704 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8CA112-8A55-48D8-B49C-921B797A981F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="A5:H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="2.44140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="11" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="6.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8CA112-8A55-48D8-B49C-921B797A981F}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="A5:G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="2.44140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="11" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="9.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D579B4F5-EA49-4BEE-BA04-1BF7EF7F51B9}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="A5:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="2.44140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="0">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="0">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="0">
+        <v>300000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7025B482-E33D-40FE-B8BF-2396A31546EA}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="A5:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>30</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0">
+        <v>30</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0">
+        <v>30</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3458B896-D095-4DF0-9FD0-217D27695047}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="A3:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="2.44140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="7.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6908FBB6-A01E-4C62-9445-FD2DA86D1C6D}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="A3:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="8" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>5000000</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1000000</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1100000</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1000000000</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3B797E-0F27-4764-AEC1-816D6D2DC06A}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="A4:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="3.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2</v>
+      </c>
+      <c r="C8" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>4</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=EPPlusLicense.txt>This workbook was created with the EPPlus library, licensed to E A under the Polyform Noncommercial license, see https://polyformproject.org/licenses/noncommercial/1.0.0
+For more information about EPPlus, see https://epplussoftware.com/
+
 </file>